--- a/upload/excel/党费模板.xlsx
+++ b/upload/excel/党费模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,15 +30,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>黄诗悦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘junming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳琪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港岛男友</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +62,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -77,8 +96,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -375,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -402,15 +424,49 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>13241231165</v>
+        <v>13117815133</v>
       </c>
       <c r="C2">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>13361646998</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>13807066031</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>17679086676</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
